--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Total_Amount</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>IsDeleted</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +483,9 @@
       <c r="E2" t="n">
         <v>20000</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -496,6 +504,9 @@
       </c>
       <c r="E3" t="n">
         <v>5000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -516,6 +527,9 @@
       <c r="E4" t="n">
         <v>12000</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -534,6 +548,581 @@
       </c>
       <c r="E5" t="n">
         <v>8000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-02 16:34:49</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-02 16:39:51</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-02 16:44:39</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-03-02 16:55:49</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-03-02 16:56:56</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-02 17:47:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-03-02 17:51:31</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-03-02 17:56:07</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-03-02 17:59:34</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:00:19</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:01:10</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:04:18</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:11:14</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:22:00</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:28:35</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>31.89830508474576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-03-02 18:33:20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>22.522</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-03-02 20:02:39</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>90.09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-03-03 07:28:41</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>105.0105</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-03-03 07:29:19</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>67.56699999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-03-03 07:32:22</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>12048.74227272727</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-03-03 07:34:59</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>978.0361016949153</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-03-03 07:38:50</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>941.3978293413174</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-03-03 08:06:39</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-03-03 08:07:09</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-03-03 08:11:01</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-03-03 08:12:42</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>IsDeleted</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Order_Info</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -486,6 +491,11 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Random Order Info 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -507,6 +517,11 @@
       </c>
       <c r="F3" t="n">
         <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Random Order Info 2</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -530,6 +545,11 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Random Order Info 3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -552,6 +572,11 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Random Order Info 4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +599,11 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Random Order Info 5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -596,6 +626,11 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Random Order Info 6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -618,6 +653,11 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Random Order Info 7</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -640,6 +680,11 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Random Order Info 8</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +707,11 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Random Order Info 9</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -684,6 +734,11 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Random Order Info 10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -706,6 +761,11 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Random Order Info 11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -728,6 +788,11 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Random Order Info 12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -750,6 +815,11 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Random Order Info 13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -772,6 +842,11 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Random Order Info 14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -794,6 +869,11 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Random Order Info 15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -816,6 +896,11 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Random Order Info 16</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -838,6 +923,11 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Random Order Info 17</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -860,6 +950,11 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Random Order Info 18</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -882,6 +977,11 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Random Order Info 19</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -904,6 +1004,11 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Random Order Info 20</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -926,6 +1031,11 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Random Order Info 21</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -948,6 +1058,11 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Random Order Info 22</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -970,6 +1085,11 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Random Order Info 23</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -992,6 +1112,11 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Random Order Info 24</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1014,6 +1139,11 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Random Order Info 25</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1036,6 +1166,11 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Random Order Info 26</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1058,6 +1193,11 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Random Order Info 27</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1080,6 +1220,11 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Random Order Info 28</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1102,6 +1247,11 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Random Order Info 29</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1119,11 +1269,292 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>60.06</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Random Order Info 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:38:18</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>281.4798305084746</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:44:09</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>75.075</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:45:14</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:45:56</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>55422.42177503629</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:49:17</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>99.46107784431139</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:50:02</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>11186.68115876002</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:53:52</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2974.681818181818</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:55:12</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1793.72197309417</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:01:42</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>269.298108982036</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:05:52</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>13071.4896021017</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:12:41</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1883.81197309417</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:19:56</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,12 +1549,93 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4574.394932735427</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:27:18</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>22.522</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>werf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:29:00</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-8668.918703389829</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>dfsggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:31:04</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3342.896860986547</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sfdsgdfg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,6 +1637,29 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-03-03 19:39:50</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>wfwd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1053,14 +1053,14 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>105.0105</v>
+        <v>184.7562627118645</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Random Order Info 22</t>
+          <t>Order 22</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60.06</v>
+        <v>28988.14117307856</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1657,6 +1657,33 @@
       <c r="G47" t="inlineStr">
         <is>
           <t>wfwd</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-03-04 07:04:08</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>uPDATE1203</t>
         </is>
       </c>
     </row>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31.89830508474576</v>
+        <v>1761.823668009425</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1301,7 +1301,11 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>281TOT</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1324,7 +1328,11 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,11 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1378,7 +1382,11 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1401,7 +1409,11 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1424,7 +1436,11 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1447,7 +1463,11 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1470,7 +1490,11 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1493,7 +1517,11 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1516,7 +1544,11 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1539,7 +1571,11 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1562,7 +1598,11 @@
       <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Order Description</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1649,8 +1689,12 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>2025-03-03 19:39:50</t>
@@ -1692,6 +1736,33 @@
       <c r="G48" t="inlineStr">
         <is>
           <t>uPDATE1203</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-03-16 19:02:52</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2830.326799810271</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Order 1202</t>
         </is>
       </c>
     </row>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,190 +472,55 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-22 16:41:32</t>
+          <t>2025-03-23 21:55:01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>62.562</v>
+        <v>6000.06</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>O941</t>
+          <t>O254</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-22 16:58:33</t>
+          <t>2025-03-23 21:59:22</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>250.8333333333333</v>
+        <v>8000.08</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>O958</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>56</v>
-      </c>
-      <c r="B4" t="n">
-        <v>18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-03-22 17:08:42</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4000.04</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>O1008</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>57</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-03-22 17:24:12</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>15000.0135</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>O1023</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>58</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-03-22 19:11:13</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>O1211</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>59</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-03-22 19:16:46</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>O1216</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-03-22 19:21:23</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2976000.02976</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>O1221</t>
+          <t>O300</t>
         </is>
       </c>
     </row>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,87 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-27 08:22:27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41500.0415</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-03-27 15:28:01</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>59000.059</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>O827</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-27 17:20:34</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7500.075</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>O1020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,11 +597,65 @@
         <v>7500.075</v>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>O1020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-27 17:47:33</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8000.08</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>O1020</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>O1047</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-27 17:50:33</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15000.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>O1050</t>
         </is>
       </c>
     </row>

--- a/Backup/Orders.xlsx
+++ b/Backup/Orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,6 +659,222 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:18:25</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15000.015</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>O1118</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-03-28 18:41:45</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10000.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>O1141</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-28 19:07:07</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>9000.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>O1207</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-03-28 19:17:33</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>27000.027</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>O1217</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-03-28 19:18:43</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10500.0105</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>O1218</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-03-28 19:19:42</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10000.01</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>O1219</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-03-28 19:21:47</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>O1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-28 19:22:09</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10500.0105</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>O1222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
